--- a/algorithm/CT_Value/CT_Value.xlsx
+++ b/algorithm/CT_Value/CT_Value.xlsx
@@ -14,18 +14,54 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>CT_Value</t>
-  </si>
-  <si>
-    <t>test</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+  <si>
+    <t>well_1</t>
+  </si>
+  <si>
+    <t>well_2</t>
+  </si>
+  <si>
+    <t>well_3</t>
+  </si>
+  <si>
+    <t>well_4</t>
+  </si>
+  <si>
+    <t>well_5</t>
+  </si>
+  <si>
+    <t>well_6</t>
+  </si>
+  <si>
+    <t>well_7</t>
+  </si>
+  <si>
+    <t>well_8</t>
+  </si>
+  <si>
+    <t>well_9</t>
+  </si>
+  <si>
+    <t>well_10</t>
+  </si>
+  <si>
+    <t>well_11</t>
+  </si>
+  <si>
+    <t>well_13</t>
+  </si>
+  <si>
+    <t>well_14</t>
+  </si>
+  <si>
+    <t>well_15</t>
+  </si>
+  <si>
+    <t>well_16</t>
   </si>
   <si>
     <t>CH1</t>
-  </si>
-  <si>
-    <t>CH2</t>
   </si>
 </sst>
 </file>
@@ -383,23 +419,62 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:16">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="B2">
         <v>45.68</v>
@@ -407,16 +482,44 @@
       <c r="C2">
         <v>24.71</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3">
-        <v>45.68</v>
-      </c>
-      <c r="C3">
-        <v>24.71</v>
+      <c r="D2">
+        <v>26.25</v>
+      </c>
+      <c r="E2">
+        <v>26.4</v>
+      </c>
+      <c r="F2">
+        <v>24.83</v>
+      </c>
+      <c r="G2">
+        <v>23.05</v>
+      </c>
+      <c r="H2">
+        <v>26.98</v>
+      </c>
+      <c r="I2">
+        <v>22.07</v>
+      </c>
+      <c r="J2">
+        <v>25.85</v>
+      </c>
+      <c r="K2">
+        <v>26.63</v>
+      </c>
+      <c r="L2">
+        <v>24.41</v>
+      </c>
+      <c r="M2">
+        <v>25.37</v>
+      </c>
+      <c r="N2">
+        <v>25.83</v>
+      </c>
+      <c r="O2">
+        <v>25.92</v>
+      </c>
+      <c r="P2">
+        <v>26.9</v>
       </c>
     </row>
   </sheetData>
